--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quadance-my.sharepoint.com/personal/rahul_krishnan_quadance_com/Documents/UiPath/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{003C3A41-EB98-4A66-9412-1541DEED72D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE2587A-3C92-4902-9348-B90769CCF9CF}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{003C3A41-EB98-4A66-9412-1541DEED72D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68DF4BFD-C508-4F82-8871-CF6474F64607}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,23 @@
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -60,9 +71,6 @@
     <t>HCHB R2 - TRADITIONS HEALTH CARE TRAINING</t>
   </si>
   <si>
-    <t>D:\Users\rahul.krishnan\Documents\UiPath\E5_CitrixTask1\Data\Output\</t>
-  </si>
-  <si>
     <t>Clinical Manager</t>
   </si>
   <si>
@@ -121,13 +129,49 @@
   </si>
   <si>
     <t>Titles of Windows to be closed</t>
+  </si>
+  <si>
+    <t>Crdential name for HCHB website</t>
+  </si>
+  <si>
+    <t>HCHB_Credentials</t>
+  </si>
+  <si>
+    <t>BotMailID</t>
+  </si>
+  <si>
+    <t>ToMailID</t>
+  </si>
+  <si>
+    <t>CcMailID</t>
+  </si>
+  <si>
+    <t>rahul.krishnan@e5.ai</t>
+  </si>
+  <si>
+    <t>Mail ID for Robot</t>
+  </si>
+  <si>
+    <t>Receiver Mail ID</t>
+  </si>
+  <si>
+    <t>CC Mail ID</t>
+  </si>
+  <si>
+    <t>Data\Output\</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Delay for activities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,14 +201,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,16 +236,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -217,9 +251,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -229,11 +261,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -245,9 +276,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -258,12 +286,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2682,7 +2710,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2728,264 +2756,293 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
